--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_155.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_155.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1142241379310345</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1517241379310345</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(30.494172, 33.431496)]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(62.94, 73.0)]</t>
+          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:17.120000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1289473684210526</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'A'], ['D', 'A', 'B:min']]</t>
-        </is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1385964912280702</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D'], ['G', 'D', 'E:min']]</t>
+          <t>[['F#:min', 'C#', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.408834, 12.996317), (18.302076, 23.689106)]</t>
+          <t>[['C:min/G', 'G', 'C:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(7.968347, 20.332973), (10.452882, 21.58685)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:59.704875', '0:01:03.512947')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:11.820000', '0:00:18.540000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>jaah_25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1005747126436781</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['Eb', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(62.42, 64.62)]</t>
+          <t>[['C', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.16, 15.08)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:38.830000', '0:00:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:23.117291', '0:00:29.711758')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_201</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
+          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:27.771000', '0:00:41.282000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:02.674000', '0:02:06.958000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1046910755148741</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1712473572938689</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.083177)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:02.600000', '0:00:04.500000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2626728110599078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1503759398496241</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.738333, 15.380782)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.78, 19.18)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4153846153846154</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(19.602494, 26.162131)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(42.52, 46.36)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.3, 19.52)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'E:min', 'A:min'], ['E:min', 'A:min', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'D:min'], ['A:min', 'D:min', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(38.795, 44.251), (0.506, 8.175)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(30.842, 35.352), (35.888, 38.359)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(192.882, 253.747)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.922018, 25.350952)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1535714285714286</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:7', 'B:min7/4', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:min7', 'D:7', 'G']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(46.509, 50.945)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(31.93, 36.59)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1165689149560117</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'D:min', 'G:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'G:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(26.035941, 29.460884)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(25.443832, 29.681473)]</t>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(45.48, 56.6)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.36, 3.02)]</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(26.48, 31.82), (25.8, 29.46), (253.84, 257.6), (14.62, 19.56)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (9.78, 14.36), (44.0, 61.06), (1.54, 6.68)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(68.04, 79.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(219.56, 230.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
